--- a/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,28; 24,63</t>
+          <t>10,7; 24,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 26,93</t>
+          <t>12,22; 26,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 29,56</t>
+          <t>15,14; 30,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,64; 40,6</t>
+          <t>21,1; 40,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,58; 35,79</t>
+          <t>19,99; 35,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,58; 41,43</t>
+          <t>23,53; 42,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,97; 36,28</t>
+          <t>18,41; 35,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,67; 31,7</t>
+          <t>20,43; 32,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,77; 27,49</t>
+          <t>16,98; 27,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 31,92</t>
+          <t>20,15; 31,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 30,34</t>
+          <t>18,54; 30,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,12; 33,54</t>
+          <t>22,72; 32,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 22,24</t>
+          <t>15,61; 21,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 19,18</t>
+          <t>12,78; 18,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,21</t>
+          <t>14,13; 20,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,89; 22,4</t>
+          <t>16,07; 22,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,18; 33,54</t>
+          <t>26,14; 33,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,9; 27,27</t>
+          <t>19,92; 27,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 25,31</t>
+          <t>18,27; 25,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,06; 25,59</t>
+          <t>20,29; 25,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,9; 26,74</t>
+          <t>21,76; 26,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,06</t>
+          <t>17,22; 21,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 21,79</t>
+          <t>17,03; 21,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 23,11</t>
+          <t>18,95; 23,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,91; 24,31</t>
+          <t>18,91; 24,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 16,99</t>
+          <t>12,39; 16,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,9</t>
+          <t>12,64; 17,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,13</t>
+          <t>10,45; 15,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,96; 36,41</t>
+          <t>30,22; 36,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,09; 26,06</t>
+          <t>20,23; 25,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 25,46</t>
+          <t>20,08; 25,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 23,24</t>
+          <t>18,86; 23,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,02; 29,19</t>
+          <t>25,39; 29,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 20,49</t>
+          <t>17,01; 20,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 20,3</t>
+          <t>16,99; 20,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 18,76</t>
+          <t>15,16; 18,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,11</t>
+          <t>14,23; 20,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 21,42</t>
+          <t>15,33; 21,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 18,04</t>
+          <t>12,53; 17,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,45</t>
+          <t>12,57; 18,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 26,93</t>
+          <t>20,56; 26,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,62; 28,14</t>
+          <t>21,6; 27,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 23,16</t>
+          <t>17,3; 23,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 23,09</t>
+          <t>12,92; 23,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,19; 22,58</t>
+          <t>18,23; 22,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,39; 23,97</t>
+          <t>19,21; 23,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 19,74</t>
+          <t>15,74; 19,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,63; 19,66</t>
+          <t>14,01; 19,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,55; 22,48</t>
+          <t>17,28; 22,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,7</t>
+          <t>17,98; 23,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,62; 18,21</t>
+          <t>13,64; 18,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,13</t>
+          <t>17,05; 22,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,73; 33,6</t>
+          <t>27,92; 33,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,28; 32,15</t>
+          <t>26,13; 32,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,91; 26,29</t>
+          <t>20,8; 26,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,29; 28,38</t>
+          <t>23,52; 28,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,53; 27,82</t>
+          <t>23,76; 27,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,89; 26,95</t>
+          <t>23,08; 26,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,82; 21,59</t>
+          <t>17,95; 21,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,19; 24,91</t>
+          <t>21,26; 24,85</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,06; 20,81</t>
+          <t>18,15; 21,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,99; 18,74</t>
+          <t>16,06; 18,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,51; 16,98</t>
+          <t>14,49; 16,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,43; 18,16</t>
+          <t>15,35; 18,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,29</t>
+          <t>28,04; 31,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,02; 27,03</t>
+          <t>23,93; 27,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,79; 23,81</t>
+          <t>20,86; 23,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 23,84</t>
+          <t>20,25; 23,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,63; 25,77</t>
+          <t>23,6; 25,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,47; 22,53</t>
+          <t>20,52; 22,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,04; 20,07</t>
+          <t>17,9; 19,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,58; 20,85</t>
+          <t>18,58; 20,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,7; 24,3</t>
+          <t>10,45; 24,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,22; 26,92</t>
+          <t>11,99; 26,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,14; 30,8</t>
+          <t>15,22; 29,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,99; 35,32</t>
+          <t>19,78; 35,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,53; 42,94</t>
+          <t>23,5; 42,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,41; 35,56</t>
+          <t>18,8; 35,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 27,83</t>
+          <t>17,11; 27,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,15; 31,87</t>
+          <t>20,35; 32,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,54; 30,13</t>
+          <t>18,73; 30,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,61; 21,83</t>
+          <t>15,83; 21,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 18,8</t>
+          <t>12,9; 19,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 20,42</t>
+          <t>13,88; 20,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,14; 33,76</t>
+          <t>26,18; 33,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,92; 27,14</t>
+          <t>20,19; 27,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,27; 25,29</t>
+          <t>17,96; 25,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,76; 26,76</t>
+          <t>21,78; 26,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 21,81</t>
+          <t>17,19; 21,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,8</t>
+          <t>17,24; 21,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,91; 24,6</t>
+          <t>18,84; 24,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 16,99</t>
+          <t>12,33; 16,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,64; 17,0</t>
+          <t>12,63; 16,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,22; 36,21</t>
+          <t>29,9; 36,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,88</t>
+          <t>20,1; 25,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 25,5</t>
+          <t>19,96; 25,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,39; 29,52</t>
+          <t>25,35; 29,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 20,43</t>
+          <t>16,97; 20,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 20,54</t>
+          <t>16,89; 20,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,18</t>
+          <t>14,22; 20,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,33; 21,32</t>
+          <t>15,26; 21,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 17,66</t>
+          <t>12,79; 17,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 26,89</t>
+          <t>20,6; 27,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 27,92</t>
+          <t>21,38; 28,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 23,12</t>
+          <t>17,32; 23,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,23; 22,58</t>
+          <t>18,29; 22,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,21; 23,54</t>
+          <t>19,19; 23,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 19,64</t>
+          <t>15,84; 19,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 22,43</t>
+          <t>17,6; 22,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,45</t>
+          <t>17,77; 23,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,64; 18,26</t>
+          <t>13,45; 18,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,92; 33,63</t>
+          <t>27,68; 33,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,13; 32,03</t>
+          <t>26,29; 31,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,17</t>
+          <t>20,36; 25,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,76; 27,83</t>
+          <t>23,79; 27,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,08; 26,84</t>
+          <t>23,01; 27,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,95; 21,77</t>
+          <t>18,02; 21,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,15; 21,02</t>
+          <t>18,17; 21,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,77</t>
+          <t>16,09; 18,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,49; 16,92</t>
+          <t>14,4; 16,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,04; 31,33</t>
+          <t>28,06; 31,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,93; 27,03</t>
+          <t>23,96; 26,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,86; 23,76</t>
+          <t>20,94; 23,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,6; 25,71</t>
+          <t>23,67; 25,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,52; 22,52</t>
+          <t>20,52; 22,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,93</t>
+          <t>18,09; 20,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,45; 24,77</t>
+          <t>10,28; 24,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 26,92</t>
+          <t>12,89; 26,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,22; 29,94</t>
+          <t>14,92; 29,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,1; 40,18</t>
+          <t>21,64; 40,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 35,42</t>
+          <t>20,58; 35,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,5; 42,14</t>
+          <t>22,58; 41,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,8; 35,33</t>
+          <t>18,97; 36,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 32,25</t>
+          <t>20,67; 31,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,11; 27,26</t>
+          <t>16,77; 27,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,35; 32,44</t>
+          <t>19,96; 31,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,73; 30,1</t>
+          <t>18,9; 30,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,72; 32,73</t>
+          <t>23,12; 33,54</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,83; 21,88</t>
+          <t>15,64; 22,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,9; 19,0</t>
+          <t>12,89; 19,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 20,32</t>
+          <t>14,02; 20,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,07; 22,42</t>
+          <t>15,89; 22,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,18; 33,98</t>
+          <t>26,18; 33,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,19; 27,71</t>
+          <t>19,9; 27,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,39</t>
+          <t>18,37; 25,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,29; 25,73</t>
+          <t>20,06; 25,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,78; 26,77</t>
+          <t>21,9; 26,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 21,87</t>
+          <t>17,22; 22,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 21,87</t>
+          <t>17,11; 21,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 23,05</t>
+          <t>18,99; 23,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,84; 24,24</t>
+          <t>18,91; 24,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 16,9</t>
+          <t>12,46; 16,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 16,98</t>
+          <t>12,57; 16,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 15,29</t>
+          <t>10,35; 15,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,9; 36,11</t>
+          <t>29,96; 36,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,1; 25,89</t>
+          <t>20,09; 26,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,96; 25,47</t>
+          <t>20,15; 25,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,86; 23,29</t>
+          <t>18,82; 23,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,35; 29,21</t>
+          <t>25,02; 29,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,97; 20,37</t>
+          <t>16,74; 20,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 20,35</t>
+          <t>16,9; 20,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 18,62</t>
+          <t>15,26; 18,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 20,59</t>
+          <t>14,12; 20,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,26; 21,35</t>
+          <t>15,61; 21,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 17,88</t>
+          <t>12,56; 18,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,57; 18,46</t>
+          <t>12,89; 18,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,6; 27,1</t>
+          <t>20,34; 26,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,38; 28,1</t>
+          <t>21,62; 28,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 23,01</t>
+          <t>17,1; 23,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,92; 23,05</t>
+          <t>12,4; 23,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,29; 22,74</t>
+          <t>18,19; 22,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,19; 23,7</t>
+          <t>19,39; 23,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,84; 19,78</t>
+          <t>15,83; 19,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,01; 19,71</t>
+          <t>13,63; 19,66</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 22,69</t>
+          <t>17,55; 22,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,77; 23,3</t>
+          <t>17,91; 23,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,45; 18,24</t>
+          <t>13,62; 18,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,46</t>
+          <t>17,08; 22,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,68; 33,65</t>
+          <t>27,73; 33,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,29; 31,86</t>
+          <t>26,28; 32,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,36; 25,88</t>
+          <t>20,91; 26,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,52; 28,57</t>
+          <t>23,29; 28,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,79; 27,53</t>
+          <t>23,53; 27,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,01; 27,0</t>
+          <t>22,89; 26,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,02; 21,76</t>
+          <t>17,82; 21,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,26; 24,85</t>
+          <t>21,19; 24,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,17; 21,02</t>
+          <t>18,06; 20,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,09; 18,75</t>
+          <t>15,99; 18,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,4; 16,97</t>
+          <t>14,51; 16,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,35; 18,22</t>
+          <t>15,43; 18,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,06; 31,26</t>
+          <t>28,22; 31,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,96; 26,89</t>
+          <t>24,02; 27,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,94; 23,83</t>
+          <t>20,79; 23,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,25; 23,96</t>
+          <t>20,19; 23,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,67; 25,72</t>
+          <t>23,63; 25,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,52; 22,45</t>
+          <t>20,47; 22,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,09; 20,06</t>
+          <t>18,04; 20,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,58; 20,8</t>
+          <t>18,58; 20,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>21,89%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,28; 24,63</t>
+          <t>15,42; 21,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 26,93</t>
+          <t>13,65; 19,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 29,56</t>
+          <t>14,97; 20,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,64; 40,6</t>
+          <t>17,45; 23,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,58; 35,79</t>
+          <t>26,22; 32,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,58; 41,43</t>
+          <t>21,8; 28,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,97; 36,28</t>
+          <t>19,21; 25,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,67; 31,7</t>
+          <t>20,84; 25,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,77; 27,49</t>
+          <t>21,91; 26,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 31,92</t>
+          <t>18,3; 22,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 30,34</t>
+          <t>17,95; 22,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,12; 33,54</t>
+          <t>19,89; 23,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>15,46%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 22,24</t>
+          <t>18,91; 24,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 19,18</t>
+          <t>12,46; 16,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,21</t>
+          <t>12,57; 16,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,89; 22,4</t>
+          <t>5,21; 14,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,18; 33,54</t>
+          <t>29,96; 36,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,9; 27,27</t>
+          <t>20,09; 26,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 25,31</t>
+          <t>20,15; 25,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,06; 25,59</t>
+          <t>19,02; 23,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,9; 26,74</t>
+          <t>25,02; 29,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,06</t>
+          <t>16,74; 20,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 21,79</t>
+          <t>16,9; 20,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 23,11</t>
+          <t>10,57; 17,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>16,19%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,91; 24,31</t>
+          <t>14,12; 20,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 16,99</t>
+          <t>15,61; 21,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,9</t>
+          <t>12,56; 18,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,13</t>
+          <t>12,8; 18,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,96; 36,41</t>
+          <t>20,34; 26,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,09; 26,06</t>
+          <t>21,62; 28,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 25,46</t>
+          <t>17,1; 23,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 23,24</t>
+          <t>8,77; 22,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,02; 29,19</t>
+          <t>18,19; 22,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 20,49</t>
+          <t>19,39; 23,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 20,3</t>
+          <t>15,83; 19,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 18,76</t>
+          <t>10,73; 19,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>29,04%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>24,55%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>20,1%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>19,24%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>22,17%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,11</t>
+          <t>17,55; 22,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 21,42</t>
+          <t>17,91; 23,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 18,04</t>
+          <t>13,62; 18,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,45</t>
+          <t>16,9; 22,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 26,93</t>
+          <t>27,73; 33,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,62; 28,14</t>
+          <t>26,28; 32,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 23,16</t>
+          <t>20,91; 26,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 23,09</t>
+          <t>19,96; 27,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,19; 22,58</t>
+          <t>23,53; 27,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,39; 23,97</t>
+          <t>22,89; 26,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 19,74</t>
+          <t>17,82; 21,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,63; 19,66</t>
+          <t>19,4; 24,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>18,71%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,55; 22,48</t>
+          <t>18,06; 20,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,7</t>
+          <t>15,99; 18,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,62; 18,21</t>
+          <t>14,51; 16,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,13</t>
+          <t>12,53; 17,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,73; 33,6</t>
+          <t>28,22; 31,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,28; 32,15</t>
+          <t>24,02; 27,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,91; 26,29</t>
+          <t>20,79; 23,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,29; 28,38</t>
+          <t>17,64; 23,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,53; 27,82</t>
+          <t>23,63; 25,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,89; 26,95</t>
+          <t>20,47; 22,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,82; 21,59</t>
+          <t>18,04; 20,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,19; 24,91</t>
+          <t>16,3; 20,24</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>19,51%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,31%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>15,67%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16,79%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,67%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,47%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>22,24%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>22,54%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>24,67%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>21,46%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>19,02%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>19,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>18,06; 20,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>15,99; 18,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,51; 16,98</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>15,43; 18,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>28,22; 31,29</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>24,02; 27,03</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>20,79; 23,81</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>20,19; 23,84</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>23,63; 25,77</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>20,47; 22,53</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>18,04; 20,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>18,58; 20,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,42; 21,24</t>
+          <t>15,43; 21,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 19,35</t>
+          <t>13,28; 19,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,97; 20,85</t>
+          <t>14,98; 21,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,45; 23,65</t>
+          <t>17,74; 23,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,22; 32,97</t>
+          <t>26,04; 32,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,8; 28,29</t>
+          <t>21,77; 28,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,85</t>
+          <t>19,25; 25,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,84; 25,77</t>
+          <t>21,01; 25,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,91; 26,54</t>
+          <t>21,5; 26,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 22,63</t>
+          <t>18,23; 22,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,95; 22,46</t>
+          <t>18,06; 22,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,89; 23,91</t>
+          <t>20,03; 24,09</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,91; 24,31</t>
+          <t>18,93; 24,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,46; 16,99</t>
+          <t>12,35; 16,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,9</t>
+          <t>12,39; 16,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 14,17</t>
+          <t>6,05; 14,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,96; 36,41</t>
+          <t>29,75; 36,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,09; 26,06</t>
+          <t>20,15; 25,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,15; 25,46</t>
+          <t>20,25; 25,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,02; 23,55</t>
+          <t>19,27; 23,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,02; 29,19</t>
+          <t>25,27; 29,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,74; 20,49</t>
+          <t>17,23; 20,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,9; 20,3</t>
+          <t>17,08; 20,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 17,97</t>
+          <t>10,41; 17,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,11</t>
+          <t>14,08; 19,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 21,42</t>
+          <t>15,38; 21,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,56; 18,04</t>
+          <t>12,48; 17,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,8; 18,33</t>
+          <t>12,51; 18,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,34; 26,93</t>
+          <t>20,69; 27,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,62; 28,14</t>
+          <t>21,35; 27,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 23,16</t>
+          <t>17,58; 23,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,77; 22,5</t>
+          <t>9,15; 22,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 22,58</t>
+          <t>18,22; 22,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,39; 23,97</t>
+          <t>19,52; 23,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,83; 19,74</t>
+          <t>15,58; 19,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 19,09</t>
+          <t>10,43; 19,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,55; 22,48</t>
+          <t>17,64; 22,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,7</t>
+          <t>17,82; 23,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,62; 18,21</t>
+          <t>13,46; 18,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 22,16</t>
+          <t>16,92; 22,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,73; 33,6</t>
+          <t>28,0; 33,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,28; 32,15</t>
+          <t>26,29; 32,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,91; 26,29</t>
+          <t>20,7; 25,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 27,4</t>
+          <t>19,66; 27,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,53; 27,82</t>
+          <t>23,8; 27,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,89; 26,95</t>
+          <t>22,97; 26,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,82; 21,59</t>
+          <t>18,03; 21,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,02</t>
+          <t>19,87; 24,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,06; 20,81</t>
+          <t>18,28; 21,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,99; 18,74</t>
+          <t>16,01; 18,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 16,98</t>
+          <t>14,49; 17,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,53; 17,51</t>
+          <t>12,14; 17,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,29</t>
+          <t>27,97; 31,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,02; 27,03</t>
+          <t>23,99; 26,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,79; 23,81</t>
+          <t>20,88; 23,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,37</t>
+          <t>17,3; 23,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,63; 25,77</t>
+          <t>23,52; 25,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,47; 22,53</t>
+          <t>20,45; 22,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,04; 20,07</t>
+          <t>18,06; 20,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,3; 20,24</t>
+          <t>16,43; 20,26</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>126682</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>113157</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>120051</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>129849</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>202552</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>173672</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>150250</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>157135</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>329235</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>286830</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>270301</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>286985</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>107063; 149512</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>93321; 135788</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100922; 141771</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>112710; 150651</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>179232; 225489</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>151532; 198688</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>129203; 172719</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>141993; 173964</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>297219; 360436</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>254941; 319991</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>242871; 301910</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>262676; 315829</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>207480</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>147143</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>148999</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>127674</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>320500</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>235744</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>236292</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>204400</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>527980</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>382887</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>385291</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>332074</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>182046; 235102</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>125583; 172494</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>126527; 172079</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>72112; 169058</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>288105; 351196</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>207730; 263796</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>211239; 268007</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>184316; 226037</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>487852; 568460</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>352877; 422490</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>352515; 424785</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>223572; 384557</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>116124</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>138001</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>114847</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>108019</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>161150</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>189571</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>157063</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>157196</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>277273</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>327572</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>271910</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>265215</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>95517; 135536</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>116559; 159707</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>94652; 133894</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>88133; 126864</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>141486; 186113</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>164870; 213586</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>137365; 182334</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>85361; 211704</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>248276; 305487</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>298600; 361067</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>239887; 300727</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>170910; 312487</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>188933</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>194283</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>147337</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>179448</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>318364</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>305498</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>243211</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>268259</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>507296</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>499781</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>390548</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>447707</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>166179; 213973</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>168746; 222540</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>126015; 169882</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>156782; 205861</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>290765; 349027</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>276574; 339652</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>215814; 270709</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>214831; 297819</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>471347; 543156</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>459072; 538505</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>356864; 428057</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>401259; 491299</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>639218</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>592584</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>531234</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>544990</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1002566</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>904486</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>786816</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>786991</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1641785</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1497070</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1318049</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1331981</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>598980; 689419</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>548288; 639920</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>491393; 576178</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>419986; 604028</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>945138; 1053966</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>852035; 957667</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>738735; 843103</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>632844; 859981</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1565663; 1710947</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1426614; 1570610</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1251189; 1390966</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1169148; 1441937</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>